--- a/data/long_razon/IMC_R-Urba-long_razon.xlsx
+++ b/data/long_razon/IMC_R-Urba-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-19,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-12,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>31,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-7,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-53,22; 35,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-48,35; 40,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-35,55; 55,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,44; 92,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-32,85; 30,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,4; 49,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-9,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-24,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-6,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-10,82%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-45,33; 63,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-43,78; 67,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-49,3; 62,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-55,67; 32,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,13; 46,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,6; 35,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-46,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>50,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-23,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>211,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-36,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,14%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-88,12; 63,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-35,27; 267,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-77,87; 107,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 1374,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-75,16; 29,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,25; 282,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-16,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,42 +1015,64 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-40,13; 21,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,66; 34,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-31,5; 33,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 59,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,29; 13,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,23; 34,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>

--- a/data/long_razon/IMC_R-Urba-long_razon.xlsx
+++ b/data/long_razon/IMC_R-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -630,329 +635,217 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.149786590584054</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.08515828602193348</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.181934528172939</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.08275896169530046</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.3318180831340324</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.1056550170019454</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.02662893070618254</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.1293146784112882</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.1423868884793993</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.5059380680442886</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.4245823925970588</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.5489715146124903</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.306802025691616</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.0877016400390629</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.4738446410792555</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.3113218672020928</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.1804104232574942</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.4220363799662261</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.3909312600944815</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.536103676859545</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.4669274218996333</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.682102889005973</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.018306349942492</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.5500186610868716</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.3455526985396979</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.5501965359778735</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.254455194080708</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.0445825561746421</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.01099977545704334</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.2243516675592151</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.1169554522591703</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.2352287757640965</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.2751459823928458</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.07058184021877223</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.1023837368181338</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.2475866921401269</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.4376474927010436</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.4597799805356345</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.5376993792768813</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.510175910737191</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.5336210329956081</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.5559767653110746</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.3600451404195578</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.3801481983327345</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.4810009893504315</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.6736235074499936</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.6803885649010629</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3921730680880154</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.6280975328999797</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3281652430243918</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.1466557733342642</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.401820689501457</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.4231156240737578</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.08495122405344636</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -960,107 +853,215 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.4308557717166394</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.5648604712826718</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.09540383710786994</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.2482221728818451</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>1.945538313109797</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.4256276845418975</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.346276834477815</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.9591492008709777</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.2542963378850099</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.8722565043829075</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.3941865521379171</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.7960497291394837</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.7769158670528494</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.02779800499287092</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.7954578246612908</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.686774058056316</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.091099969898568</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.6488021306108195</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.8696865390643416</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.70716393811102</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.010507532123929</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.246688122025199</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>14.64634190756587</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.6461741062259612</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.4000518707312098</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>3.002805382181534</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.6831656241985762</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.1370379889430417</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.01856802222693679</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.1827164002320438</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.03486076371811655</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.1750664545050229</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.2183398615343185</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.09132262723487382</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.08847833898468679</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.2008091454135161</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.3881321686991035</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.2835566393576277</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.4496626506936052</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.2938443556127103</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.1274433064888084</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.4427212559958827</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.3089377348677027</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.1351955155045651</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.3659722413649906</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.2179900330736996</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.3979766019178814</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.258415220459186</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.3613565251488167</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.6157385010427895</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.09734653205936356</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.1407435884442021</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.3634295994713682</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.03736810957042443</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1069,13 +1070,13 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
